--- a/src/excelA.xlsx
+++ b/src/excelA.xlsx
@@ -125,10 +125,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -149,6 +149,146 @@
         <v>2</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/src/excelA.xlsx
+++ b/src/excelA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t xml:space="preserve">aaa</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">asdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nova</t>
   </si>
 </sst>
 </file>
@@ -125,10 +128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:A32"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -153,64 +156,139 @@
       <c r="A5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="B8" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="B10" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
-        <v>7</v>
+      <c r="A11" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>13</v>
       </c>
     </row>
@@ -218,24 +296,54 @@
       <c r="A18" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="B18" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>15</v>
       </c>
+      <c r="B19" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>16</v>
       </c>
+      <c r="B20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>17</v>
       </c>
+      <c r="B21" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -243,50 +351,154 @@
       <c r="A23" s="0" t="n">
         <v>19</v>
       </c>
+      <c r="B23" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>20</v>
       </c>
+      <c r="B24" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>21</v>
       </c>
+      <c r="B25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>22</v>
       </c>
+      <c r="B26" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>23</v>
       </c>
+      <c r="B27" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>24</v>
       </c>
+      <c r="B28" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>25</v>
       </c>
+      <c r="B29" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>26</v>
       </c>
+      <c r="B30" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>27</v>
       </c>
+      <c r="B31" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>28</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
